--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T06:24:54+00:00</t>
+    <t>2022-05-29T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -326,10 +326,10 @@
     <t>Authorized Dose Form</t>
   </si>
   <si>
+    <t>IDMPProductModel.doseForm</t>
+  </si>
+  <si>
     <t>10210000 capsule, hard</t>
-  </si>
-  <si>
-    <t>IDMPProductModel.doseForm</t>
   </si>
   <si>
     <t>IDMPProductModel.unitOfPresentation</t>
@@ -1931,7 +1931,7 @@
         <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>72</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2031,43 +2031,43 @@
         <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -2131,7 +2131,7 @@
         <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>72</v>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:18:51+00:00</t>
+    <t>2022-05-29T08:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Unit of presentation</t>
+  </si>
+  <si>
+    <t>15012000 capsule</t>
   </si>
   <si>
     <t>IDMPProductModel.routeOfAdministration</t>
@@ -2131,7 +2134,7 @@
         <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>72</v>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2213,10 +2216,10 @@
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2267,7 +2270,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2313,10 +2316,10 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2367,7 +2370,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -2387,7 +2390,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2413,10 +2416,10 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2431,7 +2434,7 @@
         <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>72</v>
@@ -2467,7 +2470,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>80</v>
@@ -2487,7 +2490,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2513,10 +2516,10 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2567,7 +2570,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
@@ -2587,7 +2590,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2613,10 +2616,10 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2667,7 +2670,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -2687,7 +2690,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2713,10 +2716,10 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2767,7 +2770,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2810,13 +2813,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2831,7 +2834,7 @@
         <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>72</v>
@@ -2867,7 +2870,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
@@ -2887,7 +2890,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2910,13 +2913,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2967,7 +2970,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3013,10 +3016,10 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3067,7 +3070,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -3087,7 +3090,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3110,13 +3113,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3167,7 +3170,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -3187,7 +3190,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3210,13 +3213,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3267,7 +3270,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -3287,7 +3290,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3313,10 +3316,10 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3367,7 +3370,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>80</v>
@@ -3387,7 +3390,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3413,10 +3416,10 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3467,7 +3470,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>80</v>
@@ -3487,7 +3490,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3510,13 +3513,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3531,7 +3534,7 @@
         <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>72</v>
@@ -3567,7 +3570,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -3587,7 +3590,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3610,13 +3613,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3667,7 +3670,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
@@ -3687,7 +3690,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3713,10 +3716,10 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3767,7 +3770,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>80</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3810,13 +3813,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3867,7 +3870,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>80</v>
@@ -3887,7 +3890,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3910,13 +3913,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3967,7 +3970,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -3987,7 +3990,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4013,10 +4016,10 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4067,7 +4070,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4087,7 +4090,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4110,13 +4113,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4167,7 +4170,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:21:05+00:00</t>
+    <t>2022-05-31T09:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -731,7 +731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3016,10 +3016,10 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3070,7 +3070,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3113,13 +3113,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3170,7 +3170,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3216,10 +3216,10 @@
         <v>119</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3234,7 +3234,7 @@
         <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>72</v>
@@ -3270,7 +3270,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3313,13 +3313,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3370,7 +3370,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>80</v>
@@ -3534,7 +3534,7 @@
         <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>72</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3698,10 +3698,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -3716,10 +3716,10 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3770,13 +3770,13 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>80</v>
@@ -3813,13 +3813,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3870,10 +3870,10 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -3885,306 +3885,6 @@
         <v>72</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -240,7 +240,74 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>IDMPProductModel.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>IDMPProductModel.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>IDMPProductModel.name</t>
@@ -256,9 +323,6 @@
     <t>IDMPProductModel.name.nameType</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
@@ -269,10 +333,6 @@
     <t>IDMPProductModel.name.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>IDMPProductModel.classification</t>
   </si>
   <si>
@@ -305,7 +365,7 @@
     <t>IDMP MPID</t>
   </si>
   <si>
-    <t>IDMPProductModel.identifier.phpid_l4</t>
+    <t>IDMPProductModel.identifier.phpid4</t>
   </si>
   <si>
     <t>IDMP PhPID Level 4</t>
@@ -394,6 +454,12 @@
   </si>
   <si>
     <t>IDMPProductModel.ingredient.referenceStrength</t>
+  </si>
+  <si>
+    <t>IDMPProductModel.ingredient.referenceStrength.referenceStrengthSubstance</t>
+  </si>
+  <si>
+    <t>The substance used to determine the strength</t>
   </si>
   <si>
     <t>IDMPProductModel.ingredient.referenceStrength.referenceStrengthValue</t>
@@ -731,7 +797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -742,7 +808,7 @@
   <cols>
     <col min="1" max="1" width="80.48828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -767,7 +833,7 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="80.48828125" customWidth="true" bestFit="true" hidden="true"/>
@@ -979,18 +1045,18 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1001,7 +1067,7 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -1013,13 +1079,13 @@
         <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1070,13 +1136,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1085,23 +1151,23 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1113,15 +1179,17 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>72</v>
@@ -1158,39 +1226,39 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1201,7 +1269,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1213,13 +1281,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1270,13 +1338,13 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1290,7 +1358,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1298,10 +1366,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1313,13 +1381,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1370,13 +1438,13 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
@@ -1390,7 +1458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1401,7 +1469,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1413,13 +1481,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1470,13 +1538,13 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1490,7 +1558,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1501,7 +1569,7 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1513,13 +1581,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1570,13 +1638,13 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1590,7 +1658,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1601,7 +1669,7 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1613,13 +1681,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1670,13 +1738,13 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1690,7 +1758,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1713,13 +1781,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1734,7 +1802,7 @@
         <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>72</v>
@@ -1770,7 +1838,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -1790,7 +1858,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1801,7 +1869,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1813,13 +1881,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1870,13 +1938,13 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1890,7 +1958,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1913,13 +1981,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1934,7 +2002,7 @@
         <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>72</v>
@@ -1970,7 +2038,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -1990,7 +2058,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1998,10 +2066,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2013,13 +2081,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2034,7 +2102,7 @@
         <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>72</v>
@@ -2070,13 +2138,13 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2090,7 +2158,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2098,7 +2166,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
@@ -2113,13 +2181,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2134,7 +2202,7 @@
         <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>72</v>
@@ -2170,10 +2238,10 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -2190,7 +2258,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2213,13 +2281,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2234,7 +2302,7 @@
         <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>72</v>
@@ -2270,7 +2338,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -2290,7 +2358,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2301,7 +2369,7 @@
         <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2313,13 +2381,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2334,7 +2402,7 @@
         <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>72</v>
@@ -2370,13 +2438,13 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2390,7 +2458,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2413,13 +2481,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2434,7 +2502,7 @@
         <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>72</v>
@@ -2470,7 +2538,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>80</v>
@@ -2490,7 +2558,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2501,7 +2569,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2513,13 +2581,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2570,13 +2638,13 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2590,7 +2658,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2613,13 +2681,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2634,7 +2702,7 @@
         <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>72</v>
@@ -2670,7 +2738,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -2690,7 +2758,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2713,13 +2781,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2770,7 +2838,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
@@ -2790,7 +2858,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2813,13 +2881,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2834,7 +2902,7 @@
         <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>72</v>
@@ -2870,7 +2938,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
@@ -2890,7 +2958,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2913,13 +2981,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2934,7 +3002,7 @@
         <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>72</v>
@@ -2970,7 +3038,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -2990,7 +3058,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3013,13 +3081,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3070,7 +3138,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -3090,7 +3158,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3113,13 +3181,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3170,7 +3238,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -3190,7 +3258,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3213,13 +3281,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3234,7 +3302,7 @@
         <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>72</v>
@@ -3270,7 +3338,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -3290,7 +3358,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3313,13 +3381,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3370,7 +3438,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>80</v>
@@ -3390,7 +3458,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3413,13 +3481,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3434,7 +3502,7 @@
         <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>72</v>
@@ -3470,7 +3538,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>80</v>
@@ -3490,7 +3558,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3513,13 +3581,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3570,7 +3638,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -3590,7 +3658,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3598,10 +3666,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -3613,13 +3681,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3670,13 +3738,13 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
@@ -3690,7 +3758,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3701,7 +3769,7 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -3713,13 +3781,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3770,13 +3838,13 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
@@ -3785,106 +3853,6 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/IDMPProductModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/IDMPProductModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -807,41 +807,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="80.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="68.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="80.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -1048,15 +1044,15 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1067,25 +1063,25 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1136,13 +1132,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1151,16 +1147,16 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1179,16 +1175,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1226,19 +1222,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1250,15 +1246,15 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1281,13 +1277,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1338,7 +1334,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -1358,7 +1354,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1366,10 +1362,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1381,13 +1377,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1438,13 +1434,13 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
@@ -1458,7 +1454,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1469,19 +1465,19 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>6</v>
@@ -1538,13 +1534,13 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1558,7 +1554,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1581,13 +1577,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1638,7 +1634,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -1658,7 +1654,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1681,13 +1677,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1738,7 +1734,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -1758,7 +1754,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1769,7 +1765,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1781,13 +1777,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1838,13 +1834,13 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -1858,7 +1854,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1869,7 +1865,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1881,13 +1877,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1938,13 +1934,13 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1958,7 +1954,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1969,7 +1965,7 @@
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -1981,13 +1977,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2002,7 +1998,7 @@
         <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>72</v>
@@ -2038,13 +2034,13 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -2058,7 +2054,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2081,13 +2077,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2138,7 +2134,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2158,7 +2154,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2169,7 +2165,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2181,13 +2177,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2238,13 +2234,13 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2258,7 +2254,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2266,10 +2262,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2281,13 +2277,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2302,7 +2298,7 @@
         <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>72</v>
@@ -2338,13 +2334,13 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2358,7 +2354,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2366,10 +2362,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2381,13 +2377,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2402,7 +2398,7 @@
         <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>72</v>
@@ -2438,13 +2434,13 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2458,7 +2454,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2466,10 +2462,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2481,13 +2477,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2538,13 +2534,13 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -2558,7 +2554,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2566,7 +2562,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>74</v>
@@ -2581,13 +2577,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2638,10 +2634,10 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -2658,7 +2654,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2666,10 +2662,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2681,13 +2677,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2702,7 +2698,7 @@
         <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>72</v>
@@ -2738,13 +2734,13 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2758,7 +2754,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2766,10 +2762,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -2781,13 +2777,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2838,13 +2834,13 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
@@ -2858,7 +2854,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2866,10 +2862,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -2881,13 +2877,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2938,13 +2934,13 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -2958,7 +2954,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2966,10 +2962,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -2981,13 +2977,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3002,7 +2998,7 @@
         <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>72</v>
@@ -3038,13 +3034,13 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -3058,7 +3054,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3066,10 +3062,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -3081,13 +3077,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3138,13 +3134,13 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
@@ -3158,7 +3154,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3166,10 +3162,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3181,13 +3177,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3238,13 +3234,13 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3258,7 +3254,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3266,10 +3262,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -3281,13 +3277,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3338,13 +3334,13 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -3358,7 +3354,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3366,10 +3362,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -3381,13 +3377,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3438,13 +3434,13 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
@@ -3458,7 +3454,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3466,10 +3462,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -3481,13 +3477,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3502,7 +3498,7 @@
         <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>72</v>
@@ -3538,13 +3534,13 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
@@ -3558,7 +3554,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3566,10 +3562,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -3581,13 +3577,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3638,13 +3634,13 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
@@ -3658,7 +3654,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3681,13 +3677,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3738,7 +3734,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -3758,7 +3754,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3769,7 +3765,7 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -3781,13 +3777,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3838,13 +3834,13 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPProductModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPProductModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
